--- a/DESIGN_DOCUMENTATION/FluxCapacitors.PCBDesign/BOM/BOM.xlsx
+++ b/DESIGN_DOCUMENTATION/FluxCapacitors.PCBDesign/BOM/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REK5099\Desktop\Flux-Capacitors\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REK5099\AppData\Local\Temp\Rar$DIa0.941\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
   <si>
     <t>atmega socket</t>
   </si>
@@ -382,6 +382,75 @@
   </si>
   <si>
     <t>IC5</t>
+  </si>
+  <si>
+    <t>Source Part Number</t>
+  </si>
+  <si>
+    <t>3M5480-ND</t>
+  </si>
+  <si>
+    <t>CTX1085-ND</t>
+  </si>
+  <si>
+    <t>311-1103-1-ND</t>
+  </si>
+  <si>
+    <t>490-12646-1-ND</t>
+  </si>
+  <si>
+    <t>445-173676-1-ND</t>
+  </si>
+  <si>
+    <t>490-12754-1-ND</t>
+  </si>
+  <si>
+    <t>C4SMF-GJS-CV0Y0792CT-ND</t>
+  </si>
+  <si>
+    <t>568-3846-1-ND</t>
+  </si>
+  <si>
+    <t>1N4007-TPMSCT-ND</t>
+  </si>
+  <si>
+    <t>LM317TGOS-ND</t>
+  </si>
+  <si>
+    <t>1-1437664-4-ND</t>
+  </si>
+  <si>
+    <t>LF353NFS-ND</t>
+  </si>
+  <si>
+    <t>311-270GRCT-ND</t>
+  </si>
+  <si>
+    <t>311-820GRCT-ND</t>
+  </si>
+  <si>
+    <t>311-330GRCT-ND</t>
+  </si>
+  <si>
+    <t>311-499HRCT-ND</t>
+  </si>
+  <si>
+    <t>311-1.2KGRCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT698RCT-ND</t>
+  </si>
+  <si>
+    <t>LM7812CTFS-ND</t>
+  </si>
+  <si>
+    <t>ATMEGA328-PU-ND</t>
+  </si>
+  <si>
+    <t>4037PHCT-ND</t>
+  </si>
+  <si>
+    <t>SW1386-ND</t>
   </si>
 </sst>
 </file>
@@ -735,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,12 +818,12 @@
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="111.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="110.42578125" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -774,16 +843,19 @@
         <v>49</v>
       </c>
       <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -799,18 +871,21 @@
       <c r="F7" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.73</v>
       </c>
-      <c r="I7" s="4">
-        <f>H7*B7</f>
+      <c r="J7" s="4">
+        <f>I7*B7</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -826,18 +901,21 @@
       <c r="F8" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>0.36</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" ref="I8:I28" si="0">H8*B8</f>
+      <c r="J8" s="4">
+        <f>I8*B8</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -856,18 +934,21 @@
       <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>0.1</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="0"/>
+      <c r="J9" s="4">
+        <f>I9*B9</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -886,18 +967,21 @@
       <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>2.13</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
+      <c r="J10" s="4">
+        <f>I10*B10</f>
         <v>2.13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -916,18 +1000,21 @@
       <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
+      <c r="J11" s="4">
+        <f>I11*B11</f>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -946,18 +1033,21 @@
       <c r="F12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="0"/>
+      <c r="J12" s="4">
+        <f>I12*B12</f>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -976,18 +1066,21 @@
       <c r="F13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.12</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
+      <c r="J13" s="4">
+        <f>I13*B13</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1003,18 +1096,21 @@
       <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
+      <c r="J14" s="4">
+        <f>I14*B14</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1030,18 +1126,21 @@
       <c r="F15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.13</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
+      <c r="J15" s="4">
+        <f>I15*B15</f>
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1057,18 +1156,21 @@
       <c r="F16" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.11</v>
       </c>
-      <c r="I16" s="4">
-        <f t="shared" si="0"/>
+      <c r="J16" s="4">
+        <f>I16*B16</f>
         <v>0.11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1084,18 +1186,21 @@
       <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.53</v>
       </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
+      <c r="J17" s="4">
+        <f>I17*B17</f>
         <v>0.53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1114,18 +1219,21 @@
       <c r="F18" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>6.7</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
+      <c r="J18" s="4">
+        <f>I18*B18</f>
         <v>6.7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1144,18 +1252,21 @@
       <c r="F19" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.51</v>
       </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
+      <c r="J19" s="4">
+        <f>I19*B19</f>
         <v>1.02</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1174,18 +1285,21 @@
       <c r="F20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.1</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
+      <c r="J20" s="4">
+        <f>I20*B20</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1204,18 +1318,21 @@
       <c r="F21" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.1</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
+      <c r="J21" s="4">
+        <f>I21*B21</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1234,18 +1351,21 @@
       <c r="F22" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>0.1</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="0"/>
+      <c r="J22" s="4">
+        <f>I22*B22</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1264,18 +1384,21 @@
       <c r="F23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>0.1</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="0"/>
+      <c r="J23" s="4">
+        <f>I23*B23</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1294,18 +1417,21 @@
       <c r="F24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>0.1</v>
       </c>
-      <c r="I24" s="4">
-        <f t="shared" si="0"/>
+      <c r="J24" s="4">
+        <f>I24*B24</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1324,18 +1450,21 @@
       <c r="F25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>0.1</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="0"/>
+      <c r="J25" s="4">
+        <f>I25*B25</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1351,18 +1480,21 @@
       <c r="F26" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>0.64</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="0"/>
+      <c r="J26" s="4">
+        <f>I26*B26</f>
         <v>0.64</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1381,18 +1513,21 @@
       <c r="F27" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>1.86</v>
       </c>
-      <c r="I27" s="4">
-        <f t="shared" si="0"/>
+      <c r="J27" s="4">
+        <f>I27*B27</f>
         <v>1.86</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1408,47 +1543,50 @@
       <c r="F28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>3.38</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="0"/>
+      <c r="J28" s="4">
+        <f>I28*B28</f>
         <v>3.38</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I31" s="4">
-        <f>SUM(I7:I28)</f>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <f>SUM(J7:J28)</f>
         <v>20.22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G17" r:id="rId1"/>
-    <hyperlink ref="G19" r:id="rId2"/>
-    <hyperlink ref="G7" r:id="rId3"/>
-    <hyperlink ref="G11" r:id="rId4"/>
-    <hyperlink ref="G12" r:id="rId5"/>
-    <hyperlink ref="G13" r:id="rId6"/>
-    <hyperlink ref="G20" r:id="rId7"/>
-    <hyperlink ref="G18" r:id="rId8"/>
-    <hyperlink ref="G26" r:id="rId9"/>
-    <hyperlink ref="G28" r:id="rId10"/>
-    <hyperlink ref="G27" r:id="rId11"/>
-    <hyperlink ref="G25" r:id="rId12"/>
-    <hyperlink ref="G16" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G14" r:id="rId15"/>
-    <hyperlink ref="G10" r:id="rId16"/>
-    <hyperlink ref="G9" r:id="rId17"/>
-    <hyperlink ref="G8" r:id="rId18"/>
-    <hyperlink ref="G21" r:id="rId19"/>
-    <hyperlink ref="G22" r:id="rId20"/>
-    <hyperlink ref="G23" r:id="rId21"/>
-    <hyperlink ref="G24" r:id="rId22"/>
+    <hyperlink ref="H17" r:id="rId1"/>
+    <hyperlink ref="H19" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H11" r:id="rId4"/>
+    <hyperlink ref="H12" r:id="rId5"/>
+    <hyperlink ref="H13" r:id="rId6"/>
+    <hyperlink ref="H20" r:id="rId7"/>
+    <hyperlink ref="H18" r:id="rId8"/>
+    <hyperlink ref="H26" r:id="rId9"/>
+    <hyperlink ref="H28" r:id="rId10"/>
+    <hyperlink ref="H27" r:id="rId11"/>
+    <hyperlink ref="H25" r:id="rId12"/>
+    <hyperlink ref="H16" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H14" r:id="rId15"/>
+    <hyperlink ref="H10" r:id="rId16"/>
+    <hyperlink ref="H9" r:id="rId17"/>
+    <hyperlink ref="H8" r:id="rId18"/>
+    <hyperlink ref="H21" r:id="rId19"/>
+    <hyperlink ref="H22" r:id="rId20"/>
+    <hyperlink ref="H24" r:id="rId21"/>
+    <hyperlink ref="H23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
